--- a/URS/DbLayouts/L8-遵循法令作業/JcicZ053.xlsx
+++ b/URS/DbLayouts/L8-遵循法令作業/JcicZ053.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24131"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\SKL\DB\GenTables\L8-遵循法令作業\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\SKL\DB\GenTables\L8-遵循法令作業\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{766E7A20-F9EF-417C-874E-875E222E92D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26D41A34-70C4-4C84-92B4-B033EEB57D12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DBD" sheetId="4" r:id="rId1"/>
@@ -21,21 +21,21 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="84">
   <si>
     <t>讀取Key條件</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>其他ORDER條件</t>
+  </si>
+  <si>
+    <t>FunNm</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>ForeignKey1</t>
     <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>其他ORDER條件</t>
-  </si>
-  <si>
-    <t>FunNm</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>ForeignKey1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -117,147 +117,147 @@
   </si>
   <si>
     <t>Table</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>Key ID</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>Uni</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>PrimaryKey</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>Index1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>Index2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>SEQ</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>債務人IDN</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>交易代碼</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>VARCHAR2</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>VARCHAR2</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>Index3</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>報送單位代號</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>協商申請日</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>LastUpdate</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>Decimald</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>CreateEmpNo</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>TranKey</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>SubmitKey</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>CustId</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>RcDate</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>OutJcicTxtDate</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>申請變更還款條件日</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>轉出JCIC文字檔日期</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>CreateDate</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>建檔日期時間</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>DATE</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>建檔人員</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>VARCHAR2</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>最後更新日期時間</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>LastUpdateEmpNo</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>最後更新人員</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>ChangePayDate</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>JcicZ053</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>同意報送例外處理檔案</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>Index4</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>MaxMainCode</t>
@@ -282,18 +282,15 @@
   </si>
   <si>
     <t>最大債權金融機構代號</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>A:新增;C:異動</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>Y;N</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>CustIdEq</t>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>CustId=</t>
@@ -302,100 +299,123 @@
     <t>CustId ASC , RcDate DESC</t>
   </si>
   <si>
-    <t>RcDateEq</t>
-  </si>
-  <si>
     <t>RcDate=</t>
   </si>
   <si>
-    <t>CustRcEq</t>
-  </si>
-  <si>
     <t>CustId= , AND RcDate=</t>
   </si>
   <si>
     <t>三位文數字</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>NVARCHAR2</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>NVARCHAR2</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>VARCHAR2</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>NVARCHAR2</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>指最大債權金融機構實際之收件日期</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>二位文數字42,43,61</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>V</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>Ukey</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>流水號</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>otherEq</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>CreateDate DESC</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>ukeyFirst</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>Ukey=</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>otherFirst</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>MaxMainCode</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>SubmitKey= , AND CustId= , AND RcDate= , AND MaxMainCode=</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>SubmitKey,CustId,RcDate,MaxMainCode</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>custIdEq</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>rcDateEq</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>custRcEq</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>custRcSubEq</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SubmitKey= , AND CustId= , AND RcDate= </t>
+  </si>
+  <si>
+    <t>CreateDate DESC</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="新細明體"/>
       <family val="1"/>
+      <charset val="136"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="新細明體"/>
+      <family val="2"/>
       <charset val="136"/>
       <scheme val="minor"/>
     </font>
@@ -541,82 +561,89 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
     <cellStyle name="一般 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="一般 2 2" xfId="2" xr:uid="{73130B2C-2EB7-422D-BC64-BEB609D16A8F}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -954,7 +981,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K108"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
@@ -1002,10 +1029,10 @@
       </c>
       <c r="B3" s="20"/>
       <c r="C3" s="14" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="D3" s="13" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
@@ -1068,7 +1095,7 @@
       </c>
       <c r="B8" s="20"/>
       <c r="C8" s="14" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="D8" s="13"/>
       <c r="E8" s="11"/>
@@ -1130,14 +1157,14 @@
         <v>22</v>
       </c>
       <c r="D11" s="14" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="E11" s="15">
         <v>3</v>
       </c>
       <c r="F11" s="15"/>
       <c r="G11" s="14" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
@@ -1177,7 +1204,7 @@
       </c>
       <c r="F13" s="15"/>
       <c r="G13" s="14" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.3">
@@ -1191,14 +1218,14 @@
         <v>53</v>
       </c>
       <c r="D14" s="14" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="E14" s="15">
         <v>3</v>
       </c>
       <c r="F14" s="15"/>
       <c r="G14" s="14" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.3">
@@ -1212,7 +1239,7 @@
         <v>50</v>
       </c>
       <c r="D15" s="14" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="E15" s="15">
         <v>1</v>
@@ -1233,14 +1260,14 @@
         <v>51</v>
       </c>
       <c r="D16" s="14" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="E16" s="15">
         <v>2</v>
       </c>
       <c r="F16" s="15"/>
       <c r="G16" s="14" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
@@ -1254,14 +1281,14 @@
         <v>52</v>
       </c>
       <c r="D17" s="14" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="E17" s="15">
         <v>2</v>
       </c>
       <c r="F17" s="15"/>
       <c r="G17" s="14" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
@@ -1307,10 +1334,10 @@
         <v>11</v>
       </c>
       <c r="B20" s="14" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="C20" s="16" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="D20" s="14" t="s">
         <v>19</v>
@@ -1840,7 +1867,7 @@
     <mergeCell ref="A5:B5"/>
     <mergeCell ref="A6:B6"/>
   </mergeCells>
-  <phoneticPr fontId="11" type="noConversion"/>
+  <phoneticPr fontId="12" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -1848,11 +1875,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B8" sqref="B8"/>
+      <selection pane="bottomLeft" activeCell="A8" sqref="A8:C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -1876,69 +1903,80 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="C2" s="1" t="s">
         <v>57</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>59</v>
+        <v>79</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>61</v>
+        <v>80</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>74</v>
+        <v>71</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" s="21" t="s">
+        <v>81</v>
+      </c>
+      <c r="B8" s="21" t="s">
+        <v>82</v>
+      </c>
+      <c r="C8" s="21" t="s">
+        <v>83</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
 </worksheet>
